--- a/biology/Médecine/Ministère_de_la_Santé_(Tunisie)/Ministère_de_la_Santé_(Tunisie).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_(Tunisie)/Ministère_de_la_Santé_(Tunisie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Tunisie)</t>
+          <t>Ministère_de_la_Santé_(Tunisie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ministère de la Santé (arabe : وزارة الصحة), est le ministère tunisien chargé de la santé publique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Tunisie)</t>
+          <t>Ministère_de_la_Santé_(Tunisie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Missions et attributions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les missions et les attributions du ministère de la Santé sont définies par le décret n°74-1064 du 28 novembre 1974[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les missions et les attributions du ministère de la Santé sont définies par le décret n°74-1064 du 28 novembre 1974.
 Le ministère a pour principale mission de veiller sur la santé de la population dans le but de permettre le développement harmonieux de ses facultés physiques et mentales et de son adaptation au milieu naturel et à l'environnement social du pays. Ses moyens incluent la lutte contre les causes de détérioration du bien-être physique ou mental qui peuvent l'affecter individuellement ou collectivement. À ce titre, il élabore pour le gouvernement la politique de santé publique, la planifie, veille à sa mise en œuvre et en contrôle l'exécution dans les domaines de la prévention, des soins, du médicament, des stupéfiants et des laboratoires et de la réadaptation.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Tunisie)</t>
+          <t>Ministère_de_la_Santé_(Tunisie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le ministère de la Santé s'organise selon le décret no 81-793 du 9 juin 1981 portant organisation des services de l'administration centrale du ministère tels que modifiés par des décrets postérieurs :
 Ministre de la Santé
@@ -592,7 +608,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Tunisie)</t>
+          <t>Ministère_de_la_Santé_(Tunisie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -610,7 +626,9 @@
           <t>Établissements sous tutelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Instance nationale de l'accréditation en santé (Tunis)
@@ -655,7 +673,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Tunisie)</t>
+          <t>Ministère_de_la_Santé_(Tunisie)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -673,12 +691,13 @@
           <t>Ministre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ministre de la Santé est nommé par le président de la République tunisienne sur proposition du chef du gouvernement. Il dirige le ministère et participe au Conseil des ministres.
-Historique
-Liste</t>
+</t>
         </is>
       </c>
     </row>
@@ -688,7 +707,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Tunisie)</t>
+          <t>Ministère_de_la_Santé_(Tunisie)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,10 +722,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Ministre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Tunisie)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Tunisie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Secrétaires d'État</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2011 : Lamine Moulahi
 2015-2016 : Nejmeddine Hamrouni
